--- a/MA_screening_returns/returnedfiles/MA.fullrec.screendatB.pt3.NMworking.xlsx
+++ b/MA_screening_returns/returnedfiles/MA.fullrec.screendatB.pt3.NMworking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moran\Documents\synthesis-review_mutualistism-antagonism\MA_screening_returns\returnedfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C0E48004-992C-4BD2-B63B-7B5D5CA95D24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DBAEB9-EDDE-44D0-BC0D-3A284911ED8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1344" yWindow="-96" windowWidth="17952" windowHeight="10992"/>
+    <workbookView xWindow="1344" yWindow="-96" windowWidth="17952" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA.fullrec.screendatB.pt3" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="426">
   <si>
     <t>title</t>
   </si>
@@ -1289,12 +1289,21 @@
   </si>
   <si>
     <t>exclude</t>
+  </si>
+  <si>
+    <t>competition;</t>
+  </si>
+  <si>
+    <t>intraspecific</t>
+  </si>
+  <si>
+    <t>lean include</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1431,7 +1440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +1620,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1772,8 +1787,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2128,11 +2144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2213,6 +2229,15 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">

--- a/MA_screening_returns/returnedfiles/MA.fullrec.screendatB.pt3.NMworking.xlsx
+++ b/MA_screening_returns/returnedfiles/MA.fullrec.screendatB.pt3.NMworking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moran\Documents\synthesis-review_mutualistism-antagonism\MA_screening_returns\returnedfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DBAEB9-EDDE-44D0-BC0D-3A284911ED8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B8BD5-CBEA-493B-9435-D33E5123E0C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1344" yWindow="-96" windowWidth="17952" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="426">
   <si>
     <t>title</t>
   </si>
@@ -1291,13 +1291,13 @@
     <t>exclude</t>
   </si>
   <si>
-    <t>competition;</t>
-  </si>
-  <si>
     <t>intraspecific</t>
   </si>
   <si>
-    <t>lean include</t>
+    <t>competition; allorecognition in colonial invertebrates</t>
+  </si>
+  <si>
+    <t>competition-cooperation; social hierarchies/networks</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1620,12 +1620,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1787,9 +1781,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2147,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2229,14 +2222,14 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>425</v>
+      <c r="E4" t="s">
+        <v>419</v>
       </c>
       <c r="F4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" t="s">
         <v>424</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2252,6 +2245,9 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -2266,6 +2262,15 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -2280,6 +2285,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -2294,6 +2302,9 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -2307,6 +2318,9 @@
       </c>
       <c r="D9" t="s">
         <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
